--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.15422869394081</v>
+        <v>87.34698603748434</v>
       </c>
       <c r="D2" t="n">
-        <v>13.39687973656229</v>
+        <v>14.86852164360868</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.85162449265141</v>
+        <v>88.27176719198637</v>
       </c>
       <c r="D3" t="n">
-        <v>15.10426374062822</v>
+        <v>16.8647487470103</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.64044172288258</v>
+        <v>87.96464138869642</v>
       </c>
       <c r="D4" t="n">
-        <v>15.55088462210991</v>
+        <v>15.68062878628673</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.25931770126168</v>
+        <v>90.04685876072432</v>
       </c>
       <c r="D5" t="n">
-        <v>17.76446067741702</v>
+        <v>13.6497660631174</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.40017393417168</v>
+        <v>87.3943701815961</v>
       </c>
       <c r="D6" t="n">
-        <v>16.77354616257099</v>
+        <v>13.03483904023864</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.81964609311433</v>
+        <v>85.25228779922331</v>
       </c>
       <c r="D7" t="n">
-        <v>14.93588115373551</v>
+        <v>15.20289793863196</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.92884485924634</v>
+        <v>83.07801261826945</v>
       </c>
       <c r="D8" t="n">
-        <v>15.59169387875396</v>
+        <v>15.13432162036378</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.37255728958503</v>
+        <v>84.57070939264854</v>
       </c>
       <c r="D9" t="n">
-        <v>17.0246372070092</v>
+        <v>14.76605854043822</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>79.08489609955295</v>
+        <v>83.76079406681559</v>
       </c>
       <c r="D10" t="n">
-        <v>16.17706999618752</v>
+        <v>15.54918620083045</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.44163578354701</v>
+        <v>78.92429963520682</v>
       </c>
       <c r="D11" t="n">
-        <v>15.42740455800723</v>
+        <v>15.94950870032526</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.78077861242427</v>
+        <v>79.57936177784865</v>
       </c>
       <c r="D12" t="n">
-        <v>16.51355427505911</v>
+        <v>16.71299474282831</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.21658238469325</v>
+        <v>77.94723188691164</v>
       </c>
       <c r="D13" t="n">
-        <v>17.18365825378805</v>
+        <v>13.1345689941871</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>75.83262423132211</v>
+        <v>79.40711986336206</v>
       </c>
       <c r="D14" t="n">
-        <v>18.0379760805907</v>
+        <v>12.85159636363072</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.62270356326469</v>
+        <v>75.52405340287588</v>
       </c>
       <c r="D15" t="n">
-        <v>16.03112159560346</v>
+        <v>14.79133215714029</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.60570807021136</v>
+        <v>75.07099194146971</v>
       </c>
       <c r="D16" t="n">
-        <v>14.73492589764047</v>
+        <v>14.63519350707781</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.69022008640627</v>
+        <v>76.24907166058625</v>
       </c>
       <c r="D17" t="n">
-        <v>17.2039725992098</v>
+        <v>15.78817384826356</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.2910812427936</v>
+        <v>73.72709952978676</v>
       </c>
       <c r="D18" t="n">
-        <v>17.45701949013264</v>
+        <v>14.47408292370566</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.77278456402084</v>
+        <v>71.88992775434987</v>
       </c>
       <c r="D19" t="n">
-        <v>16.52768251075646</v>
+        <v>14.34549827827706</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.43019803523006</v>
+        <v>69.53703323827882</v>
       </c>
       <c r="D20" t="n">
-        <v>16.85690142719516</v>
+        <v>17.5421557798709</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.4869144820856</v>
+        <v>71.19235856654748</v>
       </c>
       <c r="D21" t="n">
-        <v>16.14783230154817</v>
+        <v>14.87572116712014</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.11170216564102</v>
+        <v>68.43183781777041</v>
       </c>
       <c r="D22" t="n">
-        <v>18.68586034508314</v>
+        <v>15.41425340914964</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.65146136492348</v>
+        <v>68.95825012916519</v>
       </c>
       <c r="D23" t="n">
-        <v>16.94479907231934</v>
+        <v>14.79582964273125</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.73628607429168</v>
+        <v>67.36870730911802</v>
       </c>
       <c r="D24" t="n">
-        <v>16.90710717878432</v>
+        <v>14.1482140055869</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.40848053365025</v>
+        <v>64.2956562277859</v>
       </c>
       <c r="D25" t="n">
-        <v>17.23237334966635</v>
+        <v>15.87615924001716</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.16318190051101</v>
+        <v>68.38741913257041</v>
       </c>
       <c r="D26" t="n">
-        <v>15.29223409588577</v>
+        <v>14.69924642729774</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.84039929428572</v>
+        <v>66.0720758104621</v>
       </c>
       <c r="D27" t="n">
-        <v>17.65251784980166</v>
+        <v>16.59930344476307</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.37332894323515</v>
+        <v>63.68003602350758</v>
       </c>
       <c r="D28" t="n">
-        <v>15.3036729901834</v>
+        <v>16.21436768027378</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.72268840461208</v>
+        <v>65.23289748448788</v>
       </c>
       <c r="D29" t="n">
-        <v>17.12334357710722</v>
+        <v>14.30130359171889</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.51592762236315</v>
+        <v>63.64474237184965</v>
       </c>
       <c r="D30" t="n">
-        <v>16.56609277972531</v>
+        <v>15.14798293812944</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.44363381771208</v>
+        <v>59.14742971449249</v>
       </c>
       <c r="D31" t="n">
-        <v>16.02999002474328</v>
+        <v>15.27155048141394</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.8462977917717</v>
+        <v>58.83962576888094</v>
       </c>
       <c r="D32" t="n">
-        <v>19.2696117428101</v>
+        <v>13.81010847128235</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.49199652264873</v>
+        <v>57.75142507777409</v>
       </c>
       <c r="D33" t="n">
-        <v>17.45868267309107</v>
+        <v>14.754793582501</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>62.63944660787288</v>
+        <v>58.12148982554228</v>
       </c>
       <c r="D34" t="n">
-        <v>16.79777816716262</v>
+        <v>15.14574733188489</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.03642120281985</v>
+        <v>55.44716359414288</v>
       </c>
       <c r="D35" t="n">
-        <v>17.1524512076143</v>
+        <v>17.00568618005952</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.26637501106845</v>
+        <v>56.84524223627551</v>
       </c>
       <c r="D36" t="n">
-        <v>14.94459091318112</v>
+        <v>17.28730815996864</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.50704426527098</v>
+        <v>52.97409770257664</v>
       </c>
       <c r="D37" t="n">
-        <v>15.4207453595201</v>
+        <v>14.09239617191519</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.53745877221139</v>
+        <v>54.81274977114835</v>
       </c>
       <c r="D38" t="n">
-        <v>19.60870670546931</v>
+        <v>16.8392681883655</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.00160607501208</v>
+        <v>53.06052554216652</v>
       </c>
       <c r="D39" t="n">
-        <v>15.71241206238087</v>
+        <v>15.07579768829131</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.1966796872621</v>
+        <v>52.24405041144123</v>
       </c>
       <c r="D40" t="n">
-        <v>16.56399233431987</v>
+        <v>17.28315246470122</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.42255895891773</v>
+        <v>50.42167791203569</v>
       </c>
       <c r="D41" t="n">
-        <v>16.92171877156972</v>
+        <v>14.45514046192225</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.92633888777561</v>
+        <v>48.63708038684726</v>
       </c>
       <c r="D42" t="n">
-        <v>15.99612780828648</v>
+        <v>16.11022128531603</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.46656358972443</v>
+        <v>51.59904961549769</v>
       </c>
       <c r="D43" t="n">
-        <v>15.29722325476963</v>
+        <v>14.09433518686278</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.79702085553721</v>
+        <v>47.90237997690513</v>
       </c>
       <c r="D44" t="n">
-        <v>15.37280577955064</v>
+        <v>16.50224507849079</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.37143147452506</v>
+        <v>48.57553175199824</v>
       </c>
       <c r="D45" t="n">
-        <v>16.22920284461899</v>
+        <v>14.29266546637898</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.15139229881579</v>
+        <v>45.16660993116103</v>
       </c>
       <c r="D46" t="n">
-        <v>16.5705620235196</v>
+        <v>18.21628470321017</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.52934543445895</v>
+        <v>45.06260051745021</v>
       </c>
       <c r="D47" t="n">
-        <v>17.61109217673008</v>
+        <v>15.78542734260857</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.13463798995866</v>
+        <v>45.46698561768147</v>
       </c>
       <c r="D48" t="n">
-        <v>16.30512413850865</v>
+        <v>17.22611986805697</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.73981474550121</v>
+        <v>40.29851752898426</v>
       </c>
       <c r="D49" t="n">
-        <v>19.51882661452942</v>
+        <v>19.49532718095593</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.78346645689372</v>
+        <v>42.7269182077605</v>
       </c>
       <c r="D50" t="n">
-        <v>15.32735232982976</v>
+        <v>15.4991210275101</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.02342782325221</v>
+        <v>39.74920051881063</v>
       </c>
       <c r="D51" t="n">
-        <v>17.21656360416137</v>
+        <v>16.5743107369035</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.50334688019507</v>
+        <v>40.89327821536146</v>
       </c>
       <c r="D52" t="n">
-        <v>16.81264886668353</v>
+        <v>15.7150722373548</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.12653221775483</v>
+        <v>40.44535173041232</v>
       </c>
       <c r="D53" t="n">
-        <v>17.14966670975172</v>
+        <v>15.02852395774384</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.16840939557418</v>
+        <v>35.87857714548662</v>
       </c>
       <c r="D54" t="n">
-        <v>18.036154477425</v>
+        <v>16.658449496561</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.97930902246303</v>
+        <v>35.91021812727105</v>
       </c>
       <c r="D55" t="n">
-        <v>16.77336398333358</v>
+        <v>14.61093314572075</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>33.90726753531154</v>
+        <v>35.16905533642372</v>
       </c>
       <c r="D56" t="n">
-        <v>16.28666599734852</v>
+        <v>16.28079749983817</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.06044592934344</v>
+        <v>31.10499188788606</v>
       </c>
       <c r="D57" t="n">
-        <v>16.42149806067363</v>
+        <v>13.83400984904068</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.70298674716118</v>
+        <v>31.96346488177332</v>
       </c>
       <c r="D58" t="n">
-        <v>13.94459605783333</v>
+        <v>13.46720667382685</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.92120530849412</v>
+        <v>32.74174672800338</v>
       </c>
       <c r="D59" t="n">
-        <v>16.72284478377875</v>
+        <v>16.45156171704212</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.9524667503558</v>
+        <v>30.62303771769838</v>
       </c>
       <c r="D60" t="n">
-        <v>16.21966175298078</v>
+        <v>18.10197015332351</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.0453127972419</v>
+        <v>29.77403613148585</v>
       </c>
       <c r="D61" t="n">
-        <v>18.08937874613853</v>
+        <v>15.9320640584638</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.09235865033411</v>
+        <v>30.31717615010229</v>
       </c>
       <c r="D62" t="n">
-        <v>16.21417971257603</v>
+        <v>15.81420920901779</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.41979828735336</v>
+        <v>28.20076815028185</v>
       </c>
       <c r="D63" t="n">
-        <v>17.47993349758369</v>
+        <v>17.05805684898712</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.63221637743739</v>
+        <v>29.16327705738251</v>
       </c>
       <c r="D64" t="n">
-        <v>18.10472176419639</v>
+        <v>13.48260939221135</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.90228424715361</v>
+        <v>28.57184457869137</v>
       </c>
       <c r="D65" t="n">
-        <v>19.75093189820838</v>
+        <v>17.60016329634142</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89674609578924</v>
+        <v>28.90207940876085</v>
       </c>
       <c r="D66" t="n">
-        <v>14.50490646714661</v>
+        <v>17.59510039926917</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.50654905711394</v>
+        <v>23.49910555719981</v>
       </c>
       <c r="D67" t="n">
-        <v>16.94047462987863</v>
+        <v>17.24453919988031</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.25306343511021</v>
+        <v>21.89219101401142</v>
       </c>
       <c r="D68" t="n">
-        <v>15.10053959658881</v>
+        <v>16.86625818408887</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.61410348233371</v>
+        <v>22.29038642887886</v>
       </c>
       <c r="D69" t="n">
-        <v>16.6964031920646</v>
+        <v>17.2969036660549</v>
       </c>
     </row>
   </sheetData>
